--- a/Commodities_Look_At.xlsx
+++ b/Commodities_Look_At.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phunn\MapleLeafCap\Current_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phunn\dev\MapleLeafCap\Current\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740DA9B7-2054-4FE4-8C27-5A71B2C225F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23DB154-3E7E-4C53-B123-2BF7FD2C0443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4548" yWindow="4236" windowWidth="14400" windowHeight="7404" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commodities_Look_At" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="209">
   <si>
     <t>Commodity Name</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Aluminum</t>
   </si>
   <si>
-    <t>Market_and_Exchange_Names</t>
-  </si>
-  <si>
     <t>Comm_Net</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>Butter</t>
   </si>
   <si>
-    <t>Report_Date_as_MM_DD_YYYY</t>
-  </si>
-  <si>
     <t>Comm_Max</t>
   </si>
   <si>
@@ -81,9 +75,6 @@
     <t>Canola</t>
   </si>
   <si>
-    <t>CFTC_Contract_Market_Code</t>
-  </si>
-  <si>
     <t>Comm_Min</t>
   </si>
   <si>
@@ -93,9 +84,6 @@
     <t>Cheese</t>
   </si>
   <si>
-    <t>Open_Interest_All</t>
-  </si>
-  <si>
     <t>Comm_Index</t>
   </si>
   <si>
@@ -105,9 +93,6 @@
     <t>Coal</t>
   </si>
   <si>
-    <t>Prod_Merc_Positions_Long_ALL</t>
-  </si>
-  <si>
     <t>Swap_Net</t>
   </si>
   <si>
@@ -117,9 +102,6 @@
     <t>Cocoa</t>
   </si>
   <si>
-    <t>Prod_Merc_Positions_Short_ALL</t>
-  </si>
-  <si>
     <t>Swap_Max</t>
   </si>
   <si>
@@ -129,9 +111,6 @@
     <t>Coffee</t>
   </si>
   <si>
-    <t>Swap_Positions_Long_All</t>
-  </si>
-  <si>
     <t>Swap_Min</t>
   </si>
   <si>
@@ -141,9 +120,6 @@
     <t>Copper</t>
   </si>
   <si>
-    <t>Swap__Positions_Short_All</t>
-  </si>
-  <si>
     <t>Swap_Index</t>
   </si>
   <si>
@@ -153,9 +129,6 @@
     <t>Corn</t>
   </si>
   <si>
-    <t>Swap__Positions_Spread_All</t>
-  </si>
-  <si>
     <t>M_Money_Net</t>
   </si>
   <si>
@@ -165,9 +138,6 @@
     <t>Cotton</t>
   </si>
   <si>
-    <t>M_Money_Positions_Long_ALL</t>
-  </si>
-  <si>
     <t>M_Money_Max</t>
   </si>
   <si>
@@ -177,9 +147,6 @@
     <t>Crude Oil</t>
   </si>
   <si>
-    <t>M_Money_Positions_Short_ALL</t>
-  </si>
-  <si>
     <t>M_Money_Min</t>
   </si>
   <si>
@@ -189,9 +156,6 @@
     <t>Ethane</t>
   </si>
   <si>
-    <t>M_Money_Positions_Spread_ALL</t>
-  </si>
-  <si>
     <t>M_Money_Index</t>
   </si>
   <si>
@@ -201,9 +165,6 @@
     <t>Ethanol</t>
   </si>
   <si>
-    <t>Other_Rept_Positions_Long_ALL</t>
-  </si>
-  <si>
     <t>Other_Net</t>
   </si>
   <si>
@@ -213,9 +174,6 @@
     <t>Orange Juice</t>
   </si>
   <si>
-    <t>Other_Rept_Positions_Short_ALL</t>
-  </si>
-  <si>
     <t>Other_Max</t>
   </si>
   <si>
@@ -225,9 +183,6 @@
     <t>Gasoline</t>
   </si>
   <si>
-    <t>Other_Rept_Positions_Spread_ALL</t>
-  </si>
-  <si>
     <t>Other_Min</t>
   </si>
   <si>
@@ -237,9 +192,6 @@
     <t>Gold</t>
   </si>
   <si>
-    <t>Tot_Rept_Positions_Long_All</t>
-  </si>
-  <si>
     <t>Other_Index</t>
   </si>
   <si>
@@ -252,9 +204,6 @@
     <t>Henry Hub</t>
   </si>
   <si>
-    <t>Tot_Rept_Positions_Short_All</t>
-  </si>
-  <si>
     <t>HENRY HUB INDEX - ICE FUTURES ENERGY DIV</t>
   </si>
   <si>
@@ -264,18 +213,12 @@
     <t>Henry Hub Index</t>
   </si>
   <si>
-    <t>NonRept_Positions_Long_All</t>
-  </si>
-  <si>
     <t>LEAN HOGS - CHICAGO MERCANTILE EXCHANGE</t>
   </si>
   <si>
     <t>Lean Hogs</t>
   </si>
   <si>
-    <t>NonRept_Positions_Short_All</t>
-  </si>
-  <si>
     <t>LIVE CATTLE - CHICAGO MERCANTILE EXCHANGE</t>
   </si>
   <si>
@@ -595,6 +538,126 @@
   </si>
   <si>
     <t>2006-2015.csv</t>
+  </si>
+  <si>
+    <t>2023.csv</t>
+  </si>
+  <si>
+    <t>market_and_exchange_names</t>
+  </si>
+  <si>
+    <t>cftc_contract_market_code</t>
+  </si>
+  <si>
+    <t>open_interest_all</t>
+  </si>
+  <si>
+    <t>comm_net</t>
+  </si>
+  <si>
+    <t>comm_max</t>
+  </si>
+  <si>
+    <t>comm_min</t>
+  </si>
+  <si>
+    <t>comm_index</t>
+  </si>
+  <si>
+    <t>m_money_net</t>
+  </si>
+  <si>
+    <t>m_money_max</t>
+  </si>
+  <si>
+    <t>m_money_min</t>
+  </si>
+  <si>
+    <t>m_money_index</t>
+  </si>
+  <si>
+    <t>swap_net</t>
+  </si>
+  <si>
+    <t>swap_max</t>
+  </si>
+  <si>
+    <t>swap_min</t>
+  </si>
+  <si>
+    <t>swap_index</t>
+  </si>
+  <si>
+    <t>other_net</t>
+  </si>
+  <si>
+    <t>other_max</t>
+  </si>
+  <si>
+    <t>other_min</t>
+  </si>
+  <si>
+    <t>other_index</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>price_min</t>
+  </si>
+  <si>
+    <t>price_max</t>
+  </si>
+  <si>
+    <t>price_index</t>
+  </si>
+  <si>
+    <t>report_date_as_yyyy_mm_dd</t>
+  </si>
+  <si>
+    <t>prod_merc_positions_long</t>
+  </si>
+  <si>
+    <t>prod_merc_positions_short</t>
+  </si>
+  <si>
+    <t>swap_positions_long_old</t>
+  </si>
+  <si>
+    <t>swap__positions_short_old</t>
+  </si>
+  <si>
+    <t>swap__positions_spread_old</t>
+  </si>
+  <si>
+    <t>m_money_positions_long_old</t>
+  </si>
+  <si>
+    <t>m_money_positions_short_old</t>
+  </si>
+  <si>
+    <t>m_money_positions_spread_1</t>
+  </si>
+  <si>
+    <t>other_rept_positions_long_1</t>
+  </si>
+  <si>
+    <t>other_rept_positions_short_1</t>
+  </si>
+  <si>
+    <t>other_rept_positions_spread_1</t>
+  </si>
+  <si>
+    <t>tot_rept_positions_long_old</t>
+  </si>
+  <si>
+    <t>tot_rept_positions_short_1</t>
+  </si>
+  <si>
+    <t>nonrept_positions_long_old</t>
+  </si>
+  <si>
+    <t>nonrept_positions_short_old</t>
   </si>
 </sst>
 </file>
@@ -1445,7 +1508,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1454,7 +1517,7 @@
     <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.90625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1467,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1487,746 +1550,749 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>182</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="F5" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="F6" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="F7" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="F8" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>197</v>
       </c>
       <c r="F9" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>198</v>
+      </c>
+      <c r="F10" t="s">
+        <v>168</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>199</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>201</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>203</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="G18" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="G19" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="G20" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="G21" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="E35" t="s">
-        <v>65</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E37" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E38" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E39" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
